--- a/ERCOT-Plots/MetaData/wind_meta.xlsx
+++ b/ERCOT-Plots/MetaData/wind_meta.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfeng/Desktop/ARPA-E_PERFORM/Deliverables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henryeaton/Desktop/ERCOT DATA/MetaData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31221EF8-599B-344E-A20A-C9EA187A832B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF1B36-81C3-3B4B-8DB0-DC9941A52DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindSites_Categorized_RemoveDup" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="281">
   <si>
     <t>Facility.Name</t>
   </si>
@@ -868,7 +869,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1702,11 +1703,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7809,4 +7810,6117 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA1CCDB-D3E2-9B45-9054-347F4E9C4BB7}">
+  <dimension ref="A1:G265"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>26.409520000000001</v>
+      </c>
+      <c r="C2">
+        <v>-98.224400000000003</v>
+      </c>
+      <c r="D2">
+        <v>1190</v>
+      </c>
+      <c r="E2">
+        <v>426</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>32.238075000000002</v>
+      </c>
+      <c r="C3">
+        <v>-100.1255</v>
+      </c>
+      <c r="D3">
+        <v>960</v>
+      </c>
+      <c r="E3">
+        <v>421</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>31.848980000000001</v>
+      </c>
+      <c r="C4">
+        <v>-100.93680000000001</v>
+      </c>
+      <c r="D4">
+        <v>920</v>
+      </c>
+      <c r="E4">
+        <v>435</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5">
+        <v>32.368099999999998</v>
+      </c>
+      <c r="C5">
+        <v>-100.333</v>
+      </c>
+      <c r="D5">
+        <v>764</v>
+      </c>
+      <c r="E5">
+        <v>392</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>32.310600000000001</v>
+      </c>
+      <c r="C6">
+        <v>-100.149</v>
+      </c>
+      <c r="D6">
+        <v>683</v>
+      </c>
+      <c r="E6">
+        <v>296</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7">
+        <v>35.297566670000002</v>
+      </c>
+      <c r="C7">
+        <v>-102.5303333</v>
+      </c>
+      <c r="D7">
+        <v>674</v>
+      </c>
+      <c r="E7">
+        <v>254</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>34.139299999999999</v>
+      </c>
+      <c r="C8">
+        <v>-101.3365</v>
+      </c>
+      <c r="D8">
+        <v>653</v>
+      </c>
+      <c r="E8">
+        <v>191</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>34.0807</v>
+      </c>
+      <c r="C9">
+        <v>-99.241</v>
+      </c>
+      <c r="D9">
+        <v>630</v>
+      </c>
+      <c r="E9">
+        <v>256</v>
+      </c>
+      <c r="F9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10">
+        <v>31.545500000000001</v>
+      </c>
+      <c r="C10">
+        <v>-96.580500000000001</v>
+      </c>
+      <c r="D10">
+        <v>600</v>
+      </c>
+      <c r="E10">
+        <v>244</v>
+      </c>
+      <c r="F10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>35.262900000000002</v>
+      </c>
+      <c r="C11">
+        <v>-101.1965</v>
+      </c>
+      <c r="D11">
+        <v>538</v>
+      </c>
+      <c r="E11">
+        <v>230</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12">
+        <v>27.0031</v>
+      </c>
+      <c r="C12">
+        <v>-97.5839</v>
+      </c>
+      <c r="D12">
+        <v>528</v>
+      </c>
+      <c r="E12">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13">
+        <v>31.888500000000001</v>
+      </c>
+      <c r="C13">
+        <v>-100.5299</v>
+      </c>
+      <c r="D13">
+        <v>525</v>
+      </c>
+      <c r="E13">
+        <v>215</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <v>32.594999999999999</v>
+      </c>
+      <c r="C14">
+        <v>-99.506399999999999</v>
+      </c>
+      <c r="D14">
+        <v>522</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15">
+        <v>35.436950000000003</v>
+      </c>
+      <c r="C15">
+        <v>-101.3135</v>
+      </c>
+      <c r="D15">
+        <v>522</v>
+      </c>
+      <c r="E15">
+        <v>197</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16">
+        <v>34.9649</v>
+      </c>
+      <c r="C16">
+        <v>-101.3574</v>
+      </c>
+      <c r="D16">
+        <v>504.4</v>
+      </c>
+      <c r="E16">
+        <v>207</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17">
+        <v>28.9057</v>
+      </c>
+      <c r="C17">
+        <v>-97.859399999999994</v>
+      </c>
+      <c r="D17">
+        <v>504</v>
+      </c>
+      <c r="E17">
+        <v>206</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18">
+        <v>30.722999999999999</v>
+      </c>
+      <c r="C18">
+        <v>-101.4121</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="E18">
+        <v>205</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>27.951000000000001</v>
+      </c>
+      <c r="C19">
+        <v>-97.368899999999996</v>
+      </c>
+      <c r="D19">
+        <v>496</v>
+      </c>
+      <c r="E19">
+        <v>196</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20">
+        <v>32.92165</v>
+      </c>
+      <c r="C20">
+        <v>-101.667</v>
+      </c>
+      <c r="D20">
+        <v>491</v>
+      </c>
+      <c r="E20">
+        <v>210</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21">
+        <v>30.722999999999999</v>
+      </c>
+      <c r="C21">
+        <v>-101.4121</v>
+      </c>
+      <c r="D21">
+        <v>449.5</v>
+      </c>
+      <c r="E21">
+        <v>185</v>
+      </c>
+      <c r="F21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22">
+        <v>32.742800000000003</v>
+      </c>
+      <c r="C22">
+        <v>-100.40219999999999</v>
+      </c>
+      <c r="D22">
+        <v>418.9</v>
+      </c>
+      <c r="E22">
+        <v>173</v>
+      </c>
+      <c r="F22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23">
+        <v>30.722999999999999</v>
+      </c>
+      <c r="C23">
+        <v>-101.4121</v>
+      </c>
+      <c r="D23">
+        <v>400</v>
+      </c>
+      <c r="E23">
+        <v>166</v>
+      </c>
+      <c r="F23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24">
+        <v>27.000800000000002</v>
+      </c>
+      <c r="C24">
+        <v>-99.168599999999998</v>
+      </c>
+      <c r="D24">
+        <v>400</v>
+      </c>
+      <c r="E24">
+        <v>166</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>33.647950000000002</v>
+      </c>
+      <c r="C25">
+        <v>-99.448750000000004</v>
+      </c>
+      <c r="D25">
+        <v>392</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26">
+        <v>32.43343333</v>
+      </c>
+      <c r="C26">
+        <v>-100.664</v>
+      </c>
+      <c r="D26">
+        <v>392</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27">
+        <v>30.9132</v>
+      </c>
+      <c r="C27">
+        <v>-102.206</v>
+      </c>
+      <c r="D27">
+        <v>392</v>
+      </c>
+      <c r="E27">
+        <v>110</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28">
+        <v>34.722499999999997</v>
+      </c>
+      <c r="C28">
+        <v>-102.199</v>
+      </c>
+      <c r="D28">
+        <v>391</v>
+      </c>
+      <c r="E28">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <v>35.681899999999999</v>
+      </c>
+      <c r="C29">
+        <v>-100.562</v>
+      </c>
+      <c r="D29">
+        <v>377</v>
+      </c>
+      <c r="E29">
+        <v>156</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30">
+        <v>31.292200000000001</v>
+      </c>
+      <c r="C30">
+        <v>-102.202</v>
+      </c>
+      <c r="D30">
+        <v>373</v>
+      </c>
+      <c r="E30">
+        <v>219</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31">
+        <v>27.081399999999999</v>
+      </c>
+      <c r="C31">
+        <v>-97.561700000000002</v>
+      </c>
+      <c r="D31">
+        <v>370</v>
+      </c>
+      <c r="E31">
+        <v>118</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>34.518099999999997</v>
+      </c>
+      <c r="C32">
+        <v>-102.416</v>
+      </c>
+      <c r="D32">
+        <v>360</v>
+      </c>
+      <c r="E32">
+        <v>120</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33">
+        <v>32.746299999999998</v>
+      </c>
+      <c r="C33">
+        <v>-100.9164</v>
+      </c>
+      <c r="D33">
+        <v>360</v>
+      </c>
+      <c r="E33">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34">
+        <v>33.177500000000002</v>
+      </c>
+      <c r="C34">
+        <v>-99.212400000000002</v>
+      </c>
+      <c r="D34">
+        <v>350</v>
+      </c>
+      <c r="E34">
+        <v>146</v>
+      </c>
+      <c r="F34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35">
+        <v>33.177500000000002</v>
+      </c>
+      <c r="C35">
+        <v>-99.212400000000002</v>
+      </c>
+      <c r="D35">
+        <v>350</v>
+      </c>
+      <c r="E35">
+        <v>146</v>
+      </c>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36">
+        <v>33.974600000000002</v>
+      </c>
+      <c r="C36">
+        <v>-99.778000000000006</v>
+      </c>
+      <c r="D36">
+        <v>350</v>
+      </c>
+      <c r="E36">
+        <v>146</v>
+      </c>
+      <c r="F36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37">
+        <v>31.447199999999999</v>
+      </c>
+      <c r="C37">
+        <v>-104.51730000000001</v>
+      </c>
+      <c r="D37">
+        <v>350</v>
+      </c>
+      <c r="E37">
+        <v>146</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38">
+        <v>33.1768</v>
+      </c>
+      <c r="C38">
+        <v>-101.81610000000001</v>
+      </c>
+      <c r="D38">
+        <v>338</v>
+      </c>
+      <c r="E38">
+        <v>142</v>
+      </c>
+      <c r="F38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39">
+        <v>33.814399999999999</v>
+      </c>
+      <c r="C39">
+        <v>-101.20699999999999</v>
+      </c>
+      <c r="D39">
+        <v>336</v>
+      </c>
+      <c r="E39">
+        <v>150</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>32.8825</v>
+      </c>
+      <c r="C40">
+        <v>-100.93600000000001</v>
+      </c>
+      <c r="D40">
+        <v>330</v>
+      </c>
+      <c r="E40">
+        <v>110</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>32.739800000000002</v>
+      </c>
+      <c r="C41">
+        <v>-100.7356667</v>
+      </c>
+      <c r="D41">
+        <v>327</v>
+      </c>
+      <c r="E41">
+        <v>167</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42">
+        <v>26.497350000000001</v>
+      </c>
+      <c r="C42">
+        <v>-98.394999999999996</v>
+      </c>
+      <c r="D42">
+        <v>326</v>
+      </c>
+      <c r="E42">
+        <v>125</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43">
+        <v>36.414400000000001</v>
+      </c>
+      <c r="C43">
+        <v>-101.033</v>
+      </c>
+      <c r="D43">
+        <v>326</v>
+      </c>
+      <c r="E43">
+        <v>147</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44">
+        <v>33.35</v>
+      </c>
+      <c r="C44">
+        <v>-99.611699999999999</v>
+      </c>
+      <c r="D44">
+        <v>326</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>27.6189</v>
+      </c>
+      <c r="C45">
+        <v>-97.571399999999997</v>
+      </c>
+      <c r="D45">
+        <v>325</v>
+      </c>
+      <c r="E45">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>32.354199999999999</v>
+      </c>
+      <c r="C46">
+        <v>-100.34399999999999</v>
+      </c>
+      <c r="D46">
+        <v>325</v>
+      </c>
+      <c r="E46">
+        <v>166</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47">
+        <v>34.070500000000003</v>
+      </c>
+      <c r="C47">
+        <v>-101.82689999999999</v>
+      </c>
+      <c r="D47">
+        <v>322</v>
+      </c>
+      <c r="E47">
+        <v>135</v>
+      </c>
+      <c r="F47" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48">
+        <v>34.53</v>
+      </c>
+      <c r="C48">
+        <v>-102.2617</v>
+      </c>
+      <c r="D48">
+        <v>307.5</v>
+      </c>
+      <c r="E48">
+        <v>130</v>
+      </c>
+      <c r="F48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49">
+        <v>34.5304</v>
+      </c>
+      <c r="C49">
+        <v>-101.735</v>
+      </c>
+      <c r="D49">
+        <v>302.5</v>
+      </c>
+      <c r="E49">
+        <v>128</v>
+      </c>
+      <c r="F49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50">
+        <v>26.470600000000001</v>
+      </c>
+      <c r="C50">
+        <v>-97.673199999999994</v>
+      </c>
+      <c r="D50">
+        <v>301.74</v>
+      </c>
+      <c r="E50">
+        <v>127</v>
+      </c>
+      <c r="F50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51">
+        <v>34.290300000000002</v>
+      </c>
+      <c r="C51">
+        <v>-99.745699999999999</v>
+      </c>
+      <c r="D51">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="E51">
+        <v>127</v>
+      </c>
+      <c r="F51" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52">
+        <v>34.688099999999999</v>
+      </c>
+      <c r="C52">
+        <v>-102.732</v>
+      </c>
+      <c r="D52">
+        <v>301</v>
+      </c>
+      <c r="E52">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53">
+        <v>27.761099999999999</v>
+      </c>
+      <c r="C53">
+        <v>-99.331599999999995</v>
+      </c>
+      <c r="D53">
+        <v>300.5</v>
+      </c>
+      <c r="E53">
+        <v>127</v>
+      </c>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54">
+        <v>34.124400000000001</v>
+      </c>
+      <c r="C54">
+        <v>-99.073300000000003</v>
+      </c>
+      <c r="D54">
+        <v>300</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>33.309699999999999</v>
+      </c>
+      <c r="C55">
+        <v>-99.556700000000006</v>
+      </c>
+      <c r="D55">
+        <v>300</v>
+      </c>
+      <c r="E55">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56">
+        <v>31.303899999999999</v>
+      </c>
+      <c r="C56">
+        <v>-100.9824</v>
+      </c>
+      <c r="D56">
+        <v>300</v>
+      </c>
+      <c r="E56">
+        <v>127</v>
+      </c>
+      <c r="F56" t="s">
+        <v>139</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>243</v>
+      </c>
+      <c r="B57">
+        <v>29.277899999999999</v>
+      </c>
+      <c r="C57">
+        <v>-96.222099999999998</v>
+      </c>
+      <c r="D57">
+        <v>300</v>
+      </c>
+      <c r="E57">
+        <v>127</v>
+      </c>
+      <c r="F57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58">
+        <v>31.552399999999999</v>
+      </c>
+      <c r="C58">
+        <v>-97.201800000000006</v>
+      </c>
+      <c r="D58">
+        <v>300</v>
+      </c>
+      <c r="E58">
+        <v>127</v>
+      </c>
+      <c r="F58" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59">
+        <v>31.495200000000001</v>
+      </c>
+      <c r="C59">
+        <v>-98.595500000000001</v>
+      </c>
+      <c r="D59">
+        <v>300</v>
+      </c>
+      <c r="E59">
+        <v>127</v>
+      </c>
+      <c r="F59" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60">
+        <v>30.722999999999999</v>
+      </c>
+      <c r="C60">
+        <v>-101.4121</v>
+      </c>
+      <c r="D60">
+        <v>300</v>
+      </c>
+      <c r="E60">
+        <v>127</v>
+      </c>
+      <c r="F60" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61">
+        <v>32.301600000000001</v>
+      </c>
+      <c r="C61">
+        <v>-99.890199999999993</v>
+      </c>
+      <c r="D61">
+        <v>300</v>
+      </c>
+      <c r="E61">
+        <v>127</v>
+      </c>
+      <c r="F61" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <v>26.521100000000001</v>
+      </c>
+      <c r="C62">
+        <v>-97.673299999999998</v>
+      </c>
+      <c r="D62">
+        <v>298</v>
+      </c>
+      <c r="E62">
+        <v>76</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63">
+        <v>33.401400000000002</v>
+      </c>
+      <c r="C63">
+        <v>-98.711399999999998</v>
+      </c>
+      <c r="D63">
+        <v>294</v>
+      </c>
+      <c r="E63">
+        <v>90</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64">
+        <v>32.297699999999999</v>
+      </c>
+      <c r="C64">
+        <v>-99.373500000000007</v>
+      </c>
+      <c r="D64">
+        <v>293.55</v>
+      </c>
+      <c r="E64">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
+        <v>139</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65">
+        <v>31.869499999999999</v>
+      </c>
+      <c r="C65">
+        <v>-101.52079999999999</v>
+      </c>
+      <c r="D65">
+        <v>292.5</v>
+      </c>
+      <c r="E65">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>32.9482</v>
+      </c>
+      <c r="C66">
+        <v>-101.2115</v>
+      </c>
+      <c r="D66">
+        <v>289</v>
+      </c>
+      <c r="E66">
+        <v>221</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67">
+        <v>34.53</v>
+      </c>
+      <c r="C67">
+        <v>-102.2617</v>
+      </c>
+      <c r="D67">
+        <v>289</v>
+      </c>
+      <c r="E67">
+        <v>123</v>
+      </c>
+      <c r="F67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68">
+        <v>33.1768</v>
+      </c>
+      <c r="C68">
+        <v>-101.81610000000001</v>
+      </c>
+      <c r="D68">
+        <v>282</v>
+      </c>
+      <c r="E68">
+        <v>120</v>
+      </c>
+      <c r="F68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>246</v>
+      </c>
+      <c r="B69">
+        <v>34.072400000000002</v>
+      </c>
+      <c r="C69">
+        <v>-101.3032</v>
+      </c>
+      <c r="D69">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="E69">
+        <v>119</v>
+      </c>
+      <c r="F69" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>32.705800000000004</v>
+      </c>
+      <c r="C70">
+        <v>-101.69</v>
+      </c>
+      <c r="D70">
+        <v>276</v>
+      </c>
+      <c r="E70">
+        <v>118</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71">
+        <v>33.606099999999998</v>
+      </c>
+      <c r="C71">
+        <v>-99.741399999999999</v>
+      </c>
+      <c r="D71">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="E71">
+        <v>117</v>
+      </c>
+      <c r="F71" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72">
+        <v>32.237200000000001</v>
+      </c>
+      <c r="C72">
+        <v>-100.121</v>
+      </c>
+      <c r="D72">
+        <v>273</v>
+      </c>
+      <c r="E72">
+        <v>209</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73">
+        <v>26.470600000000001</v>
+      </c>
+      <c r="C73">
+        <v>-97.673199999999994</v>
+      </c>
+      <c r="D73">
+        <v>272.8</v>
+      </c>
+      <c r="E73">
+        <v>116</v>
+      </c>
+      <c r="F73" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74">
+        <v>31.687799999999999</v>
+      </c>
+      <c r="C74">
+        <v>-101.467</v>
+      </c>
+      <c r="D74">
+        <v>270</v>
+      </c>
+      <c r="E74">
+        <v>118</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>226</v>
+      </c>
+      <c r="B75">
+        <v>31.326499999999999</v>
+      </c>
+      <c r="C75">
+        <v>-99.864000000000004</v>
+      </c>
+      <c r="D75">
+        <v>268.5</v>
+      </c>
+      <c r="E75">
+        <v>115</v>
+      </c>
+      <c r="F75" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76">
+        <v>33.507800000000003</v>
+      </c>
+      <c r="C76">
+        <v>-98.395600000000002</v>
+      </c>
+      <c r="D76">
+        <v>266</v>
+      </c>
+      <c r="E76">
+        <v>119</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <v>27.143599999999999</v>
+      </c>
+      <c r="C77">
+        <v>-97.606399999999994</v>
+      </c>
+      <c r="D77">
+        <v>264</v>
+      </c>
+      <c r="E77">
+        <v>101</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78">
+        <v>27.426400000000001</v>
+      </c>
+      <c r="C78">
+        <v>-98.948049999999995</v>
+      </c>
+      <c r="D78">
+        <v>263</v>
+      </c>
+      <c r="E78">
+        <v>102</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>26.465299999999999</v>
+      </c>
+      <c r="C79">
+        <v>-97.672499999999999</v>
+      </c>
+      <c r="D79">
+        <v>263</v>
+      </c>
+      <c r="E79">
+        <v>112</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80">
+        <v>27.0031</v>
+      </c>
+      <c r="C80">
+        <v>-97.5839</v>
+      </c>
+      <c r="D80">
+        <v>263</v>
+      </c>
+      <c r="E80">
+        <v>84</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81">
+        <v>31.6464</v>
+      </c>
+      <c r="C81">
+        <v>-98.593100000000007</v>
+      </c>
+      <c r="D81">
+        <v>261</v>
+      </c>
+      <c r="E81">
+        <v>100</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82">
+        <v>31.871700000000001</v>
+      </c>
+      <c r="C82">
+        <v>-98.648899999999998</v>
+      </c>
+      <c r="D82">
+        <v>261</v>
+      </c>
+      <c r="E82">
+        <v>87</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83">
+        <v>34.308900000000001</v>
+      </c>
+      <c r="C83">
+        <v>-101.268</v>
+      </c>
+      <c r="D83">
+        <v>261</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84">
+        <v>31.968599999999999</v>
+      </c>
+      <c r="C84">
+        <v>-99.901899999999998</v>
+      </c>
+      <c r="D84">
+        <v>260</v>
+      </c>
+      <c r="E84">
+        <v>133</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85">
+        <v>31.793099999999999</v>
+      </c>
+      <c r="C85">
+        <v>-101.54600000000001</v>
+      </c>
+      <c r="D85">
+        <v>257</v>
+      </c>
+      <c r="E85">
+        <v>57</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86">
+        <v>32.346699999999998</v>
+      </c>
+      <c r="C86">
+        <v>-100.379</v>
+      </c>
+      <c r="D86">
+        <v>257</v>
+      </c>
+      <c r="E86">
+        <v>197</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87">
+        <v>31.326499999999999</v>
+      </c>
+      <c r="C87">
+        <v>-99.864000000000004</v>
+      </c>
+      <c r="D87">
+        <v>255.9</v>
+      </c>
+      <c r="E87">
+        <v>110</v>
+      </c>
+      <c r="F87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88">
+        <v>31.869499999999999</v>
+      </c>
+      <c r="C88">
+        <v>-101.52079999999999</v>
+      </c>
+      <c r="D88">
+        <v>255.3</v>
+      </c>
+      <c r="E88">
+        <v>109</v>
+      </c>
+      <c r="F88" t="s">
+        <v>139</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>211</v>
+      </c>
+      <c r="B89">
+        <v>31.869499999999999</v>
+      </c>
+      <c r="C89">
+        <v>-101.52079999999999</v>
+      </c>
+      <c r="D89">
+        <v>255.3</v>
+      </c>
+      <c r="E89">
+        <v>109</v>
+      </c>
+      <c r="F89" t="s">
+        <v>139</v>
+      </c>
+      <c r="G89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90">
+        <v>34.9649</v>
+      </c>
+      <c r="C90">
+        <v>-101.3574</v>
+      </c>
+      <c r="D90">
+        <v>253</v>
+      </c>
+      <c r="E90">
+        <v>108</v>
+      </c>
+      <c r="F90" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91">
+        <v>33.614600000000003</v>
+      </c>
+      <c r="C91">
+        <v>-101.3</v>
+      </c>
+      <c r="D91">
+        <v>250.7</v>
+      </c>
+      <c r="E91">
+        <v>108</v>
+      </c>
+      <c r="F91" t="s">
+        <v>139</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92">
+        <v>35.401200000000003</v>
+      </c>
+      <c r="C92">
+        <v>-100.8126</v>
+      </c>
+      <c r="D92">
+        <v>249</v>
+      </c>
+      <c r="E92">
+        <v>107</v>
+      </c>
+      <c r="F92" t="s">
+        <v>139</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>239</v>
+      </c>
+      <c r="B93">
+        <v>35.403500000000001</v>
+      </c>
+      <c r="C93">
+        <v>-101.35420000000001</v>
+      </c>
+      <c r="D93">
+        <v>248</v>
+      </c>
+      <c r="E93">
+        <v>106</v>
+      </c>
+      <c r="F93" t="s">
+        <v>139</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>280</v>
+      </c>
+      <c r="B94">
+        <v>32.742800000000003</v>
+      </c>
+      <c r="C94">
+        <v>-100.40219999999999</v>
+      </c>
+      <c r="D94">
+        <v>245.9</v>
+      </c>
+      <c r="E94">
+        <v>106</v>
+      </c>
+      <c r="F94" t="s">
+        <v>139</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>273</v>
+      </c>
+      <c r="B95">
+        <v>33.606099999999998</v>
+      </c>
+      <c r="C95">
+        <v>-99.741399999999999</v>
+      </c>
+      <c r="D95">
+        <v>242.8</v>
+      </c>
+      <c r="E95">
+        <v>104</v>
+      </c>
+      <c r="F95" t="s">
+        <v>139</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96">
+        <v>32.746299999999998</v>
+      </c>
+      <c r="C96">
+        <v>-100.9164</v>
+      </c>
+      <c r="D96">
+        <v>242.5</v>
+      </c>
+      <c r="E96">
+        <v>104</v>
+      </c>
+      <c r="F96" t="s">
+        <v>139</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97">
+        <v>33.785400000000003</v>
+      </c>
+      <c r="C97">
+        <v>-98.208399999999997</v>
+      </c>
+      <c r="D97">
+        <v>242</v>
+      </c>
+      <c r="E97">
+        <v>104</v>
+      </c>
+      <c r="F97" t="s">
+        <v>139</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98">
+        <v>28.866099999999999</v>
+      </c>
+      <c r="C98">
+        <v>-95.985299999999995</v>
+      </c>
+      <c r="D98">
+        <v>242</v>
+      </c>
+      <c r="E98">
+        <v>104</v>
+      </c>
+      <c r="F98" t="s">
+        <v>139</v>
+      </c>
+      <c r="G98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99">
+        <v>28.417400000000001</v>
+      </c>
+      <c r="C99">
+        <v>-97.741200000000006</v>
+      </c>
+      <c r="D99">
+        <v>239.8</v>
+      </c>
+      <c r="E99">
+        <v>103</v>
+      </c>
+      <c r="F99" t="s">
+        <v>139</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>275</v>
+      </c>
+      <c r="B100">
+        <v>26.470600000000001</v>
+      </c>
+      <c r="C100">
+        <v>-97.673199999999994</v>
+      </c>
+      <c r="D100">
+        <v>239.8</v>
+      </c>
+      <c r="E100">
+        <v>103</v>
+      </c>
+      <c r="F100" t="s">
+        <v>139</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101">
+        <v>26.562100000000001</v>
+      </c>
+      <c r="C101">
+        <v>-98.738399999999999</v>
+      </c>
+      <c r="D101">
+        <v>237.6</v>
+      </c>
+      <c r="E101">
+        <v>102</v>
+      </c>
+      <c r="F101" t="s">
+        <v>139</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102">
+        <v>26.396799999999999</v>
+      </c>
+      <c r="C102">
+        <v>-98.181100000000001</v>
+      </c>
+      <c r="D102">
+        <v>236.9</v>
+      </c>
+      <c r="E102">
+        <v>102</v>
+      </c>
+      <c r="F102" t="s">
+        <v>139</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103">
+        <v>26.396799999999999</v>
+      </c>
+      <c r="C103">
+        <v>-98.181100000000001</v>
+      </c>
+      <c r="D103">
+        <v>236.9</v>
+      </c>
+      <c r="E103">
+        <v>102</v>
+      </c>
+      <c r="F103" t="s">
+        <v>139</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104">
+        <v>26.396799999999999</v>
+      </c>
+      <c r="C104">
+        <v>-98.181100000000001</v>
+      </c>
+      <c r="D104">
+        <v>236.9</v>
+      </c>
+      <c r="E104">
+        <v>102</v>
+      </c>
+      <c r="F104" t="s">
+        <v>139</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105">
+        <v>26.470600000000001</v>
+      </c>
+      <c r="C105">
+        <v>-97.673199999999994</v>
+      </c>
+      <c r="D105">
+        <v>236.9</v>
+      </c>
+      <c r="E105">
+        <v>102</v>
+      </c>
+      <c r="F105" t="s">
+        <v>139</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>233</v>
+      </c>
+      <c r="B106">
+        <v>26.396799999999999</v>
+      </c>
+      <c r="C106">
+        <v>-98.181100000000001</v>
+      </c>
+      <c r="D106">
+        <v>236.9</v>
+      </c>
+      <c r="E106">
+        <v>102</v>
+      </c>
+      <c r="F106" t="s">
+        <v>139</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>234</v>
+      </c>
+      <c r="B107">
+        <v>26.396799999999999</v>
+      </c>
+      <c r="C107">
+        <v>-98.181100000000001</v>
+      </c>
+      <c r="D107">
+        <v>236.9</v>
+      </c>
+      <c r="E107">
+        <v>102</v>
+      </c>
+      <c r="F107" t="s">
+        <v>139</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108">
+        <v>32.933100000000003</v>
+      </c>
+      <c r="C108">
+        <v>-101.584</v>
+      </c>
+      <c r="D108">
+        <v>235</v>
+      </c>
+      <c r="E108">
+        <v>180</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109">
+        <v>36.14255455</v>
+      </c>
+      <c r="C109">
+        <v>-101.7363636</v>
+      </c>
+      <c r="D109">
+        <v>235</v>
+      </c>
+      <c r="E109">
+        <v>118</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>35.160800000000002</v>
+      </c>
+      <c r="C110">
+        <v>-100.89100000000001</v>
+      </c>
+      <c r="D110">
+        <v>227</v>
+      </c>
+      <c r="E110">
+        <v>87</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>255</v>
+      </c>
+      <c r="B111">
+        <v>27.723199999999999</v>
+      </c>
+      <c r="C111">
+        <v>-97.628900000000002</v>
+      </c>
+      <c r="D111">
+        <v>226</v>
+      </c>
+      <c r="E111">
+        <v>98</v>
+      </c>
+      <c r="F111" t="s">
+        <v>139</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>231</v>
+      </c>
+      <c r="B112">
+        <v>26.470600000000001</v>
+      </c>
+      <c r="C112">
+        <v>-97.673199999999994</v>
+      </c>
+      <c r="D112">
+        <v>223.8</v>
+      </c>
+      <c r="E112">
+        <v>97</v>
+      </c>
+      <c r="F112" t="s">
+        <v>139</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113">
+        <v>26.396799999999999</v>
+      </c>
+      <c r="C113">
+        <v>-98.181100000000001</v>
+      </c>
+      <c r="D113">
+        <v>222.5</v>
+      </c>
+      <c r="E113">
+        <v>97</v>
+      </c>
+      <c r="F113" t="s">
+        <v>139</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114">
+        <v>32.231900000000003</v>
+      </c>
+      <c r="C114">
+        <v>-100.04300000000001</v>
+      </c>
+      <c r="D114">
+        <v>221</v>
+      </c>
+      <c r="E114">
+        <v>113</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>175</v>
+      </c>
+      <c r="B115">
+        <v>28.326899999999998</v>
+      </c>
+      <c r="C115">
+        <v>-97.165499999999994</v>
+      </c>
+      <c r="D115">
+        <v>220</v>
+      </c>
+      <c r="E115">
+        <v>96</v>
+      </c>
+      <c r="F115" t="s">
+        <v>139</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116">
+        <v>32.765599999999999</v>
+      </c>
+      <c r="C116">
+        <v>-99.413300000000007</v>
+      </c>
+      <c r="D116">
+        <v>216</v>
+      </c>
+      <c r="E116">
+        <v>72</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117">
+        <v>26.174399999999999</v>
+      </c>
+      <c r="C117">
+        <v>-97.522199999999998</v>
+      </c>
+      <c r="D117">
+        <v>215</v>
+      </c>
+      <c r="E117">
+        <v>55</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118">
+        <v>34.750799999999998</v>
+      </c>
+      <c r="C118">
+        <v>-102.01</v>
+      </c>
+      <c r="D118">
+        <v>213</v>
+      </c>
+      <c r="E118">
+        <v>68</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119">
+        <v>30.9267</v>
+      </c>
+      <c r="C119">
+        <v>-102.1</v>
+      </c>
+      <c r="D119">
+        <v>210</v>
+      </c>
+      <c r="E119">
+        <v>107</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120">
+        <v>35.301900000000003</v>
+      </c>
+      <c r="C120">
+        <v>-102.313</v>
+      </c>
+      <c r="D120">
+        <v>210</v>
+      </c>
+      <c r="E120">
+        <v>70</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>163</v>
+      </c>
+      <c r="B121">
+        <v>35.405000000000001</v>
+      </c>
+      <c r="C121">
+        <v>-102.60290000000001</v>
+      </c>
+      <c r="D121">
+        <v>210</v>
+      </c>
+      <c r="E121">
+        <v>92</v>
+      </c>
+      <c r="F121" t="s">
+        <v>139</v>
+      </c>
+      <c r="G121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122">
+        <v>30.970800000000001</v>
+      </c>
+      <c r="C122">
+        <v>-102.396</v>
+      </c>
+      <c r="D122">
+        <v>209</v>
+      </c>
+      <c r="E122">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>78</v>
+      </c>
+      <c r="B123">
+        <v>35.418050000000001</v>
+      </c>
+      <c r="C123">
+        <v>-101.393</v>
+      </c>
+      <c r="D123">
+        <v>208</v>
+      </c>
+      <c r="E123">
+        <v>104</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>209</v>
+      </c>
+      <c r="B124">
+        <v>28.009499999999999</v>
+      </c>
+      <c r="C124">
+        <v>-97.518799999999999</v>
+      </c>
+      <c r="D124">
+        <v>206.64</v>
+      </c>
+      <c r="E124">
+        <v>90</v>
+      </c>
+      <c r="F124" t="s">
+        <v>139</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125">
+        <v>32.899700000000003</v>
+      </c>
+      <c r="C125">
+        <v>-101.133</v>
+      </c>
+      <c r="D125">
+        <v>203</v>
+      </c>
+      <c r="E125">
+        <v>74</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126">
+        <v>31.9907</v>
+      </c>
+      <c r="C126">
+        <v>-97.132400000000004</v>
+      </c>
+      <c r="D126">
+        <v>202</v>
+      </c>
+      <c r="E126">
+        <v>89</v>
+      </c>
+      <c r="F126" t="s">
+        <v>139</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127">
+        <v>27.000800000000002</v>
+      </c>
+      <c r="C127">
+        <v>-99.168599999999998</v>
+      </c>
+      <c r="D127">
+        <v>202</v>
+      </c>
+      <c r="E127">
+        <v>89</v>
+      </c>
+      <c r="F127" t="s">
+        <v>139</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128">
+        <v>27.000800000000002</v>
+      </c>
+      <c r="C128">
+        <v>-99.168599999999998</v>
+      </c>
+      <c r="D128">
+        <v>201.6</v>
+      </c>
+      <c r="E128">
+        <v>88</v>
+      </c>
+      <c r="F128" t="s">
+        <v>139</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129">
+        <v>27.000800000000002</v>
+      </c>
+      <c r="C129">
+        <v>-99.168599999999998</v>
+      </c>
+      <c r="D129">
+        <v>201.6</v>
+      </c>
+      <c r="E129">
+        <v>88</v>
+      </c>
+      <c r="F129" t="s">
+        <v>139</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>167</v>
+      </c>
+      <c r="B130">
+        <v>34.53</v>
+      </c>
+      <c r="C130">
+        <v>-102.2617</v>
+      </c>
+      <c r="D130">
+        <v>201.6</v>
+      </c>
+      <c r="E130">
+        <v>88</v>
+      </c>
+      <c r="F130" t="s">
+        <v>139</v>
+      </c>
+      <c r="G130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>168</v>
+      </c>
+      <c r="B131">
+        <v>34.53</v>
+      </c>
+      <c r="C131">
+        <v>-102.2617</v>
+      </c>
+      <c r="D131">
+        <v>201.6</v>
+      </c>
+      <c r="E131">
+        <v>88</v>
+      </c>
+      <c r="F131" t="s">
+        <v>139</v>
+      </c>
+      <c r="G131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>179</v>
+      </c>
+      <c r="B132">
+        <v>26.470600000000001</v>
+      </c>
+      <c r="C132">
+        <v>-97.673199999999994</v>
+      </c>
+      <c r="D132">
+        <v>201.6</v>
+      </c>
+      <c r="E132">
+        <v>88</v>
+      </c>
+      <c r="F132" t="s">
+        <v>139</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133">
+        <v>33.606099999999998</v>
+      </c>
+      <c r="C133">
+        <v>-99.741399999999999</v>
+      </c>
+      <c r="D133">
+        <v>201.6</v>
+      </c>
+      <c r="E133">
+        <v>88</v>
+      </c>
+      <c r="F133" t="s">
+        <v>139</v>
+      </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134">
+        <v>28.345099999999999</v>
+      </c>
+      <c r="C134">
+        <v>-99.099699999999999</v>
+      </c>
+      <c r="D134">
+        <v>201.6</v>
+      </c>
+      <c r="E134">
+        <v>88</v>
+      </c>
+      <c r="F134" t="s">
+        <v>139</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>228</v>
+      </c>
+      <c r="B135">
+        <v>26.562100000000001</v>
+      </c>
+      <c r="C135">
+        <v>-98.738399999999999</v>
+      </c>
+      <c r="D135">
+        <v>201.6</v>
+      </c>
+      <c r="E135">
+        <v>88</v>
+      </c>
+      <c r="F135" t="s">
+        <v>139</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>256</v>
+      </c>
+      <c r="B136">
+        <v>30.722999999999999</v>
+      </c>
+      <c r="C136">
+        <v>-101.4121</v>
+      </c>
+      <c r="D136">
+        <v>201.6</v>
+      </c>
+      <c r="E136">
+        <v>88</v>
+      </c>
+      <c r="F136" t="s">
+        <v>139</v>
+      </c>
+      <c r="G136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>257</v>
+      </c>
+      <c r="B137">
+        <v>30.722999999999999</v>
+      </c>
+      <c r="C137">
+        <v>-101.4121</v>
+      </c>
+      <c r="D137">
+        <v>201.6</v>
+      </c>
+      <c r="E137">
+        <v>88</v>
+      </c>
+      <c r="F137" t="s">
+        <v>139</v>
+      </c>
+      <c r="G137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138">
+        <v>27.000800000000002</v>
+      </c>
+      <c r="C138">
+        <v>-99.168599999999998</v>
+      </c>
+      <c r="D138">
+        <v>201.6</v>
+      </c>
+      <c r="E138">
+        <v>88</v>
+      </c>
+      <c r="F138" t="s">
+        <v>139</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>232</v>
+      </c>
+      <c r="B139">
+        <v>26.396799999999999</v>
+      </c>
+      <c r="C139">
+        <v>-98.181100000000001</v>
+      </c>
+      <c r="D139">
+        <v>201.1</v>
+      </c>
+      <c r="E139">
+        <v>88</v>
+      </c>
+      <c r="F139" t="s">
+        <v>139</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>182</v>
+      </c>
+      <c r="B140">
+        <v>28.009499999999999</v>
+      </c>
+      <c r="C140">
+        <v>-97.518799999999999</v>
+      </c>
+      <c r="D140">
+        <v>201</v>
+      </c>
+      <c r="E140">
+        <v>88</v>
+      </c>
+      <c r="F140" t="s">
+        <v>139</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141">
+        <v>32.735900000000001</v>
+      </c>
+      <c r="C141">
+        <v>-98.836200000000005</v>
+      </c>
+      <c r="D141">
+        <v>201</v>
+      </c>
+      <c r="E141">
+        <v>88</v>
+      </c>
+      <c r="F141" t="s">
+        <v>139</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>248</v>
+      </c>
+      <c r="B142">
+        <v>32.743699999999997</v>
+      </c>
+      <c r="C142">
+        <v>-101.43170000000001</v>
+      </c>
+      <c r="D142">
+        <v>201</v>
+      </c>
+      <c r="E142">
+        <v>88</v>
+      </c>
+      <c r="F142" t="s">
+        <v>139</v>
+      </c>
+      <c r="G142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>259</v>
+      </c>
+      <c r="B143">
+        <v>26.928100000000001</v>
+      </c>
+      <c r="C143">
+        <v>-97.717399999999998</v>
+      </c>
+      <c r="D143">
+        <v>201</v>
+      </c>
+      <c r="E143">
+        <v>88</v>
+      </c>
+      <c r="F143" t="s">
+        <v>139</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>176</v>
+      </c>
+      <c r="B144">
+        <v>30.897500000000001</v>
+      </c>
+      <c r="C144">
+        <v>-100.5385</v>
+      </c>
+      <c r="D144">
+        <v>200.9</v>
+      </c>
+      <c r="E144">
+        <v>88</v>
+      </c>
+      <c r="F144" t="s">
+        <v>139</v>
+      </c>
+      <c r="G144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>191</v>
+      </c>
+      <c r="B145">
+        <v>35.403500000000001</v>
+      </c>
+      <c r="C145">
+        <v>-101.35420000000001</v>
+      </c>
+      <c r="D145">
+        <v>200.5</v>
+      </c>
+      <c r="E145">
+        <v>88</v>
+      </c>
+      <c r="F145" t="s">
+        <v>139</v>
+      </c>
+      <c r="G145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>235</v>
+      </c>
+      <c r="B146">
+        <v>33.974600000000002</v>
+      </c>
+      <c r="C146">
+        <v>-99.778000000000006</v>
+      </c>
+      <c r="D146">
+        <v>200.2</v>
+      </c>
+      <c r="E146">
+        <v>88</v>
+      </c>
+      <c r="F146" t="s">
+        <v>139</v>
+      </c>
+      <c r="G146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>250</v>
+      </c>
+      <c r="B147">
+        <v>32.327100000000002</v>
+      </c>
+      <c r="C147">
+        <v>-98.832300000000004</v>
+      </c>
+      <c r="D147">
+        <v>200.2</v>
+      </c>
+      <c r="E147">
+        <v>88</v>
+      </c>
+      <c r="F147" t="s">
+        <v>139</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148">
+        <v>34.0807</v>
+      </c>
+      <c r="C148">
+        <v>-99.241</v>
+      </c>
+      <c r="D148">
+        <v>200</v>
+      </c>
+      <c r="E148">
+        <v>88</v>
+      </c>
+      <c r="F148" t="s">
+        <v>139</v>
+      </c>
+      <c r="G148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>215</v>
+      </c>
+      <c r="B149">
+        <v>31.869499999999999</v>
+      </c>
+      <c r="C149">
+        <v>-101.52079999999999</v>
+      </c>
+      <c r="D149">
+        <v>200</v>
+      </c>
+      <c r="E149">
+        <v>88</v>
+      </c>
+      <c r="F149" t="s">
+        <v>139</v>
+      </c>
+      <c r="G149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>216</v>
+      </c>
+      <c r="B150">
+        <v>26.562100000000001</v>
+      </c>
+      <c r="C150">
+        <v>-98.738399999999999</v>
+      </c>
+      <c r="D150">
+        <v>200</v>
+      </c>
+      <c r="E150">
+        <v>88</v>
+      </c>
+      <c r="F150" t="s">
+        <v>139</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>220</v>
+      </c>
+      <c r="B151">
+        <v>28.345099999999999</v>
+      </c>
+      <c r="C151">
+        <v>-99.099699999999999</v>
+      </c>
+      <c r="D151">
+        <v>200</v>
+      </c>
+      <c r="E151">
+        <v>88</v>
+      </c>
+      <c r="F151" t="s">
+        <v>139</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>262</v>
+      </c>
+      <c r="B152">
+        <v>34.530299999999997</v>
+      </c>
+      <c r="C152">
+        <v>-101.2086</v>
+      </c>
+      <c r="D152">
+        <v>200</v>
+      </c>
+      <c r="E152">
+        <v>88</v>
+      </c>
+      <c r="F152" t="s">
+        <v>139</v>
+      </c>
+      <c r="G152" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>263</v>
+      </c>
+      <c r="B153">
+        <v>34.530299999999997</v>
+      </c>
+      <c r="C153">
+        <v>-101.2086</v>
+      </c>
+      <c r="D153">
+        <v>200</v>
+      </c>
+      <c r="E153">
+        <v>88</v>
+      </c>
+      <c r="F153" t="s">
+        <v>139</v>
+      </c>
+      <c r="G153" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>267</v>
+      </c>
+      <c r="B154">
+        <v>34.965899999999998</v>
+      </c>
+      <c r="C154">
+        <v>-101.89700000000001</v>
+      </c>
+      <c r="D154">
+        <v>200</v>
+      </c>
+      <c r="E154">
+        <v>88</v>
+      </c>
+      <c r="F154" t="s">
+        <v>139</v>
+      </c>
+      <c r="G154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>279</v>
+      </c>
+      <c r="B155">
+        <v>30.897500000000001</v>
+      </c>
+      <c r="C155">
+        <v>-100.5385</v>
+      </c>
+      <c r="D155">
+        <v>199.5</v>
+      </c>
+      <c r="E155">
+        <v>88</v>
+      </c>
+      <c r="F155" t="s">
+        <v>139</v>
+      </c>
+      <c r="G155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>84</v>
+      </c>
+      <c r="B156">
+        <v>31.94585</v>
+      </c>
+      <c r="C156">
+        <v>-102.8095</v>
+      </c>
+      <c r="D156">
+        <v>197</v>
+      </c>
+      <c r="E156">
+        <v>95</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>87</v>
+      </c>
+      <c r="B157">
+        <v>34.018300000000004</v>
+      </c>
+      <c r="C157">
+        <v>-101.08799999999999</v>
+      </c>
+      <c r="D157">
+        <v>197</v>
+      </c>
+      <c r="E157">
+        <v>63</v>
+      </c>
+      <c r="F157" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158">
+        <v>33.503599999999999</v>
+      </c>
+      <c r="C158">
+        <v>-98.578599999999994</v>
+      </c>
+      <c r="D158">
+        <v>196</v>
+      </c>
+      <c r="E158">
+        <v>100</v>
+      </c>
+      <c r="F158" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159">
+        <v>34.415799999999997</v>
+      </c>
+      <c r="C159">
+        <v>-101.30200000000001</v>
+      </c>
+      <c r="D159">
+        <v>196</v>
+      </c>
+      <c r="E159">
+        <v>81</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>33</v>
+      </c>
+      <c r="B160">
+        <v>27.563300000000002</v>
+      </c>
+      <c r="C160">
+        <v>-98.917199999999994</v>
+      </c>
+      <c r="D160">
+        <v>196</v>
+      </c>
+      <c r="E160">
+        <v>100</v>
+      </c>
+      <c r="F160" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>68</v>
+      </c>
+      <c r="B161">
+        <v>31.1572</v>
+      </c>
+      <c r="C161">
+        <v>-100.60899999999999</v>
+      </c>
+      <c r="D161">
+        <v>196</v>
+      </c>
+      <c r="E161">
+        <v>100</v>
+      </c>
+      <c r="F161" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B162">
+        <v>33.747799999999998</v>
+      </c>
+      <c r="C162">
+        <v>-100.996</v>
+      </c>
+      <c r="D162">
+        <v>196</v>
+      </c>
+      <c r="E162">
+        <v>100</v>
+      </c>
+      <c r="F162" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>106</v>
+      </c>
+      <c r="B163">
+        <v>35.156100000000002</v>
+      </c>
+      <c r="C163">
+        <v>-101.38200000000001</v>
+      </c>
+      <c r="D163">
+        <v>196</v>
+      </c>
+      <c r="E163">
+        <v>75</v>
+      </c>
+      <c r="F163" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>110</v>
+      </c>
+      <c r="B164">
+        <v>33.211399999999998</v>
+      </c>
+      <c r="C164">
+        <v>-98.363299999999995</v>
+      </c>
+      <c r="D164">
+        <v>196</v>
+      </c>
+      <c r="E164">
+        <v>75</v>
+      </c>
+      <c r="F164" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>123</v>
+      </c>
+      <c r="B165">
+        <v>32.295299999999997</v>
+      </c>
+      <c r="C165">
+        <v>-100.15</v>
+      </c>
+      <c r="D165">
+        <v>196</v>
+      </c>
+      <c r="E165">
+        <v>100</v>
+      </c>
+      <c r="F165" t="s">
+        <v>8</v>
+      </c>
+      <c r="G165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>138</v>
+      </c>
+      <c r="B166">
+        <v>31.495200000000001</v>
+      </c>
+      <c r="C166">
+        <v>-98.595500000000001</v>
+      </c>
+      <c r="D166">
+        <v>196</v>
+      </c>
+      <c r="E166">
+        <v>86</v>
+      </c>
+      <c r="F166" t="s">
+        <v>139</v>
+      </c>
+      <c r="G166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>48</v>
+      </c>
+      <c r="B167">
+        <v>31.909300000000002</v>
+      </c>
+      <c r="C167">
+        <v>-100.84650000000001</v>
+      </c>
+      <c r="D167">
+        <v>195</v>
+      </c>
+      <c r="E167">
+        <v>109</v>
+      </c>
+      <c r="F167" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>92</v>
+      </c>
+      <c r="B168">
+        <v>32.201700000000002</v>
+      </c>
+      <c r="C168">
+        <v>-101.40600000000001</v>
+      </c>
+      <c r="D168">
+        <v>186</v>
+      </c>
+      <c r="E168">
+        <v>95</v>
+      </c>
+      <c r="F168" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>50</v>
+      </c>
+      <c r="B169">
+        <v>31.336400000000001</v>
+      </c>
+      <c r="C169">
+        <v>-98.454999999999998</v>
+      </c>
+      <c r="D169">
+        <v>184</v>
+      </c>
+      <c r="E169">
+        <v>83</v>
+      </c>
+      <c r="F169" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>218</v>
+      </c>
+      <c r="B170">
+        <v>34.0807</v>
+      </c>
+      <c r="C170">
+        <v>-99.241</v>
+      </c>
+      <c r="D170">
+        <v>184</v>
+      </c>
+      <c r="E170">
+        <v>82</v>
+      </c>
+      <c r="F170" t="s">
+        <v>139</v>
+      </c>
+      <c r="G170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>225</v>
+      </c>
+      <c r="B171">
+        <v>32.3035</v>
+      </c>
+      <c r="C171">
+        <v>-100.4061</v>
+      </c>
+      <c r="D171">
+        <v>182.4</v>
+      </c>
+      <c r="E171">
+        <v>81</v>
+      </c>
+      <c r="F171" t="s">
+        <v>139</v>
+      </c>
+      <c r="G171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>184</v>
+      </c>
+      <c r="B172">
+        <v>33.639299999999999</v>
+      </c>
+      <c r="C172">
+        <v>-97.212599999999995</v>
+      </c>
+      <c r="D172">
+        <v>180</v>
+      </c>
+      <c r="E172">
+        <v>80</v>
+      </c>
+      <c r="F172" t="s">
+        <v>139</v>
+      </c>
+      <c r="G172" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>251</v>
+      </c>
+      <c r="B173">
+        <v>31.198899999999998</v>
+      </c>
+      <c r="C173">
+        <v>-99.347499999999997</v>
+      </c>
+      <c r="D173">
+        <v>179.91</v>
+      </c>
+      <c r="E173">
+        <v>80</v>
+      </c>
+      <c r="F173" t="s">
+        <v>139</v>
+      </c>
+      <c r="G173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>195</v>
+      </c>
+      <c r="B174">
+        <v>26.928100000000001</v>
+      </c>
+      <c r="C174">
+        <v>-97.717399999999998</v>
+      </c>
+      <c r="D174">
+        <v>178.6</v>
+      </c>
+      <c r="E174">
+        <v>79</v>
+      </c>
+      <c r="F174" t="s">
+        <v>139</v>
+      </c>
+      <c r="G174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175">
+        <v>34.304699999999997</v>
+      </c>
+      <c r="C175">
+        <v>-99.376900000000006</v>
+      </c>
+      <c r="D175">
+        <v>177</v>
+      </c>
+      <c r="E175">
+        <v>80</v>
+      </c>
+      <c r="F175" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>141</v>
+      </c>
+      <c r="B176">
+        <v>31.3688</v>
+      </c>
+      <c r="C176">
+        <v>-102.04300000000001</v>
+      </c>
+      <c r="D176">
+        <v>175</v>
+      </c>
+      <c r="E176">
+        <v>78</v>
+      </c>
+      <c r="F176" t="s">
+        <v>139</v>
+      </c>
+      <c r="G176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>160</v>
+      </c>
+      <c r="B177">
+        <v>32.3035</v>
+      </c>
+      <c r="C177">
+        <v>-100.4061</v>
+      </c>
+      <c r="D177">
+        <v>175</v>
+      </c>
+      <c r="E177">
+        <v>78</v>
+      </c>
+      <c r="F177" t="s">
+        <v>139</v>
+      </c>
+      <c r="G177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>32.3035</v>
+      </c>
+      <c r="C178">
+        <v>-100.4061</v>
+      </c>
+      <c r="D178">
+        <v>175</v>
+      </c>
+      <c r="E178">
+        <v>78</v>
+      </c>
+      <c r="F178" t="s">
+        <v>139</v>
+      </c>
+      <c r="G178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>170</v>
+      </c>
+      <c r="B179">
+        <v>26.129300000000001</v>
+      </c>
+      <c r="C179">
+        <v>-97.529200000000003</v>
+      </c>
+      <c r="D179">
+        <v>174</v>
+      </c>
+      <c r="E179">
+        <v>78</v>
+      </c>
+      <c r="F179" t="s">
+        <v>139</v>
+      </c>
+      <c r="G179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180">
+        <v>32.457799999999999</v>
+      </c>
+      <c r="C180">
+        <v>-100.581</v>
+      </c>
+      <c r="D180">
+        <v>165</v>
+      </c>
+      <c r="E180">
+        <v>55</v>
+      </c>
+      <c r="F180" t="s">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>126</v>
+      </c>
+      <c r="B181">
+        <v>33.703899999999997</v>
+      </c>
+      <c r="C181">
+        <v>-97.371899999999997</v>
+      </c>
+      <c r="D181">
+        <v>164</v>
+      </c>
+      <c r="E181">
+        <v>52</v>
+      </c>
+      <c r="F181" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>229</v>
+      </c>
+      <c r="B182">
+        <v>28.009499999999999</v>
+      </c>
+      <c r="C182">
+        <v>-97.518799999999999</v>
+      </c>
+      <c r="D182">
+        <v>162.9</v>
+      </c>
+      <c r="E182">
+        <v>73</v>
+      </c>
+      <c r="F182" t="s">
+        <v>139</v>
+      </c>
+      <c r="G182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>199</v>
+      </c>
+      <c r="B183">
+        <v>31.869499999999999</v>
+      </c>
+      <c r="C183">
+        <v>-101.52079999999999</v>
+      </c>
+      <c r="D183">
+        <v>162.1</v>
+      </c>
+      <c r="E183">
+        <v>73</v>
+      </c>
+      <c r="F183" t="s">
+        <v>139</v>
+      </c>
+      <c r="G183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>46</v>
+      </c>
+      <c r="B184">
+        <v>31.937200000000001</v>
+      </c>
+      <c r="C184">
+        <v>-101.312</v>
+      </c>
+      <c r="D184">
+        <v>162</v>
+      </c>
+      <c r="E184">
+        <v>54</v>
+      </c>
+      <c r="F184" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>150</v>
+      </c>
+      <c r="B185">
+        <v>32.305</v>
+      </c>
+      <c r="C185">
+        <v>-102.6378</v>
+      </c>
+      <c r="D185">
+        <v>160</v>
+      </c>
+      <c r="E185">
+        <v>72</v>
+      </c>
+      <c r="F185" t="s">
+        <v>139</v>
+      </c>
+      <c r="G185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>40</v>
+      </c>
+      <c r="B186">
+        <v>32.133600000000001</v>
+      </c>
+      <c r="C186">
+        <v>-101.41500000000001</v>
+      </c>
+      <c r="D186">
+        <v>159</v>
+      </c>
+      <c r="E186">
+        <v>53</v>
+      </c>
+      <c r="F186" t="s">
+        <v>8</v>
+      </c>
+      <c r="G186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187">
+        <v>32.743699999999997</v>
+      </c>
+      <c r="C187">
+        <v>-101.43170000000001</v>
+      </c>
+      <c r="D187">
+        <v>158</v>
+      </c>
+      <c r="E187">
+        <v>71</v>
+      </c>
+      <c r="F187" t="s">
+        <v>139</v>
+      </c>
+      <c r="G187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188">
+        <v>33.073300000000003</v>
+      </c>
+      <c r="C188">
+        <v>-98.300799999999995</v>
+      </c>
+      <c r="D188">
+        <v>157</v>
+      </c>
+      <c r="E188">
+        <v>60</v>
+      </c>
+      <c r="F188" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>55</v>
+      </c>
+      <c r="B189">
+        <v>32.496899999999997</v>
+      </c>
+      <c r="C189">
+        <v>-101.373</v>
+      </c>
+      <c r="D189">
+        <v>157</v>
+      </c>
+      <c r="E189">
+        <v>67</v>
+      </c>
+      <c r="F189" t="s">
+        <v>8</v>
+      </c>
+      <c r="G189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>119</v>
+      </c>
+      <c r="B190">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="C190">
+        <v>-101.767</v>
+      </c>
+      <c r="D190">
+        <v>157</v>
+      </c>
+      <c r="E190">
+        <v>80</v>
+      </c>
+      <c r="F190" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>258</v>
+      </c>
+      <c r="B191">
+        <v>29.277899999999999</v>
+      </c>
+      <c r="C191">
+        <v>-96.222099999999998</v>
+      </c>
+      <c r="D191">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="E191">
+        <v>70</v>
+      </c>
+      <c r="F191" t="s">
+        <v>139</v>
+      </c>
+      <c r="G191" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>224</v>
+      </c>
+      <c r="B192">
+        <v>34.530099999999997</v>
+      </c>
+      <c r="C192">
+        <v>-102.78449999999999</v>
+      </c>
+      <c r="D192">
+        <v>152.5</v>
+      </c>
+      <c r="E192">
+        <v>69</v>
+      </c>
+      <c r="F192" t="s">
+        <v>139</v>
+      </c>
+      <c r="G192" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>241</v>
+      </c>
+      <c r="B193">
+        <v>28.866099999999999</v>
+      </c>
+      <c r="C193">
+        <v>-95.985299999999995</v>
+      </c>
+      <c r="D193">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="E193">
+        <v>69</v>
+      </c>
+      <c r="F193" t="s">
+        <v>139</v>
+      </c>
+      <c r="G193" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>93</v>
+      </c>
+      <c r="B194">
+        <v>32.201700000000002</v>
+      </c>
+      <c r="C194">
+        <v>-101.40600000000001</v>
+      </c>
+      <c r="D194">
+        <v>151</v>
+      </c>
+      <c r="E194">
+        <v>77</v>
+      </c>
+      <c r="F194" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195">
+        <v>34.53</v>
+      </c>
+      <c r="C195">
+        <v>-102.2617</v>
+      </c>
+      <c r="D195">
+        <v>150</v>
+      </c>
+      <c r="E195">
+        <v>68</v>
+      </c>
+      <c r="F195" t="s">
+        <v>139</v>
+      </c>
+      <c r="G195" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>236</v>
+      </c>
+      <c r="B196">
+        <v>34.965899999999998</v>
+      </c>
+      <c r="C196">
+        <v>-101.89700000000001</v>
+      </c>
+      <c r="D196">
+        <v>150</v>
+      </c>
+      <c r="E196">
+        <v>68</v>
+      </c>
+      <c r="F196" t="s">
+        <v>139</v>
+      </c>
+      <c r="G196" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>274</v>
+      </c>
+      <c r="B197">
+        <v>31.404399999999999</v>
+      </c>
+      <c r="C197">
+        <v>-100.46210000000001</v>
+      </c>
+      <c r="D197">
+        <v>150</v>
+      </c>
+      <c r="E197">
+        <v>68</v>
+      </c>
+      <c r="F197" t="s">
+        <v>139</v>
+      </c>
+      <c r="G197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>172</v>
+      </c>
+      <c r="B198">
+        <v>29.191299999999998</v>
+      </c>
+      <c r="C198">
+        <v>-95.455100000000002</v>
+      </c>
+      <c r="D198">
+        <v>149.5</v>
+      </c>
+      <c r="E198">
+        <v>68</v>
+      </c>
+      <c r="F198" t="s">
+        <v>139</v>
+      </c>
+      <c r="G198" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>29</v>
+      </c>
+      <c r="B199">
+        <v>32.310600000000001</v>
+      </c>
+      <c r="C199">
+        <v>-100.149</v>
+      </c>
+      <c r="D199">
+        <v>149</v>
+      </c>
+      <c r="E199">
+        <v>76</v>
+      </c>
+      <c r="F199" t="s">
+        <v>8</v>
+      </c>
+      <c r="G199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>52</v>
+      </c>
+      <c r="B200">
+        <v>36.285800000000002</v>
+      </c>
+      <c r="C200">
+        <v>-101.358</v>
+      </c>
+      <c r="D200">
+        <v>149</v>
+      </c>
+      <c r="E200">
+        <v>76</v>
+      </c>
+      <c r="F200" t="s">
+        <v>8</v>
+      </c>
+      <c r="G200" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>185</v>
+      </c>
+      <c r="B201">
+        <v>26.129300000000001</v>
+      </c>
+      <c r="C201">
+        <v>-97.529200000000003</v>
+      </c>
+      <c r="D201">
+        <v>148.5</v>
+      </c>
+      <c r="E201">
+        <v>68</v>
+      </c>
+      <c r="F201" t="s">
+        <v>139</v>
+      </c>
+      <c r="G201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>162</v>
+      </c>
+      <c r="B202">
+        <v>31.326499999999999</v>
+      </c>
+      <c r="C202">
+        <v>-99.864000000000004</v>
+      </c>
+      <c r="D202">
+        <v>148.4</v>
+      </c>
+      <c r="E202">
+        <v>68</v>
+      </c>
+      <c r="F202" t="s">
+        <v>139</v>
+      </c>
+      <c r="G202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>136</v>
+      </c>
+      <c r="B203">
+        <v>33.729199999999999</v>
+      </c>
+      <c r="C203">
+        <v>-97.393600000000006</v>
+      </c>
+      <c r="D203">
+        <v>147</v>
+      </c>
+      <c r="E203">
+        <v>75</v>
+      </c>
+      <c r="F203" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>238</v>
+      </c>
+      <c r="B204">
+        <v>26.129300000000001</v>
+      </c>
+      <c r="C204">
+        <v>-97.529200000000003</v>
+      </c>
+      <c r="D204">
+        <v>144.9</v>
+      </c>
+      <c r="E204">
+        <v>66</v>
+      </c>
+      <c r="F204" t="s">
+        <v>139</v>
+      </c>
+      <c r="G204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>66</v>
+      </c>
+      <c r="B205">
+        <v>33.19</v>
+      </c>
+      <c r="C205">
+        <v>-98.177800000000005</v>
+      </c>
+      <c r="D205">
+        <v>144</v>
+      </c>
+      <c r="E205">
+        <v>55</v>
+      </c>
+      <c r="F205" t="s">
+        <v>8</v>
+      </c>
+      <c r="G205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>116</v>
+      </c>
+      <c r="B206">
+        <v>32.444400000000002</v>
+      </c>
+      <c r="C206">
+        <v>-100.236</v>
+      </c>
+      <c r="D206">
+        <v>132</v>
+      </c>
+      <c r="E206">
+        <v>44</v>
+      </c>
+      <c r="F206" t="s">
+        <v>8</v>
+      </c>
+      <c r="G206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>57</v>
+      </c>
+      <c r="B207">
+        <v>34.765000000000001</v>
+      </c>
+      <c r="C207">
+        <v>-102.348</v>
+      </c>
+      <c r="D207">
+        <v>131</v>
+      </c>
+      <c r="E207">
+        <v>50</v>
+      </c>
+      <c r="F207" t="s">
+        <v>8</v>
+      </c>
+      <c r="G207" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208">
+        <v>29.1922</v>
+      </c>
+      <c r="C208">
+        <v>-100.19199999999999</v>
+      </c>
+      <c r="D208">
+        <v>129</v>
+      </c>
+      <c r="E208">
+        <v>55</v>
+      </c>
+      <c r="F208" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>169</v>
+      </c>
+      <c r="B209">
+        <v>32.297699999999999</v>
+      </c>
+      <c r="C209">
+        <v>-99.373500000000007</v>
+      </c>
+      <c r="D209">
+        <v>126</v>
+      </c>
+      <c r="E209">
+        <v>59</v>
+      </c>
+      <c r="F209" t="s">
+        <v>139</v>
+      </c>
+      <c r="G209" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>223</v>
+      </c>
+      <c r="B210">
+        <v>29.277899999999999</v>
+      </c>
+      <c r="C210">
+        <v>-96.222099999999998</v>
+      </c>
+      <c r="D210">
+        <v>125</v>
+      </c>
+      <c r="E210">
+        <v>58</v>
+      </c>
+      <c r="F210" t="s">
+        <v>139</v>
+      </c>
+      <c r="G210" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>108</v>
+      </c>
+      <c r="B211">
+        <v>26.118600000000001</v>
+      </c>
+      <c r="C211">
+        <v>-97.346900000000005</v>
+      </c>
+      <c r="D211">
+        <v>121</v>
+      </c>
+      <c r="E211">
+        <v>31</v>
+      </c>
+      <c r="F211" t="s">
+        <v>8</v>
+      </c>
+      <c r="G211" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>131</v>
+      </c>
+      <c r="B212">
+        <v>27.490600000000001</v>
+      </c>
+      <c r="C212">
+        <v>-98.985799999999998</v>
+      </c>
+      <c r="D212">
+        <v>119</v>
+      </c>
+      <c r="E212">
+        <v>57</v>
+      </c>
+      <c r="F212" t="s">
+        <v>8</v>
+      </c>
+      <c r="G212" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>109</v>
+      </c>
+      <c r="B213">
+        <v>32.201700000000002</v>
+      </c>
+      <c r="C213">
+        <v>-101.404</v>
+      </c>
+      <c r="D213">
+        <v>118</v>
+      </c>
+      <c r="E213">
+        <v>45</v>
+      </c>
+      <c r="F213" t="s">
+        <v>8</v>
+      </c>
+      <c r="G213" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>26</v>
+      </c>
+      <c r="B214">
+        <v>32.374200000000002</v>
+      </c>
+      <c r="C214">
+        <v>-98.381699999999995</v>
+      </c>
+      <c r="D214">
+        <v>117</v>
+      </c>
+      <c r="E214">
+        <v>26</v>
+      </c>
+      <c r="F214" t="s">
+        <v>8</v>
+      </c>
+      <c r="G214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>103</v>
+      </c>
+      <c r="B215">
+        <v>32.953299999999999</v>
+      </c>
+      <c r="C215">
+        <v>-101.215</v>
+      </c>
+      <c r="D215">
+        <v>110</v>
+      </c>
+      <c r="E215">
+        <v>56</v>
+      </c>
+      <c r="F215" t="s">
+        <v>8</v>
+      </c>
+      <c r="G215" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>24</v>
+      </c>
+      <c r="B216">
+        <v>34.801400000000001</v>
+      </c>
+      <c r="C216">
+        <v>-102.996</v>
+      </c>
+      <c r="D216">
+        <v>108</v>
+      </c>
+      <c r="E216">
+        <v>36</v>
+      </c>
+      <c r="F216" t="s">
+        <v>8</v>
+      </c>
+      <c r="G216" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>62</v>
+      </c>
+      <c r="B217">
+        <v>30.920300000000001</v>
+      </c>
+      <c r="C217">
+        <v>-102.116</v>
+      </c>
+      <c r="D217">
+        <v>108</v>
+      </c>
+      <c r="E217">
+        <v>125</v>
+      </c>
+      <c r="F217" t="s">
+        <v>8</v>
+      </c>
+      <c r="G217" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>70</v>
+      </c>
+      <c r="B218">
+        <v>35.461399999999998</v>
+      </c>
+      <c r="C218">
+        <v>-101.238</v>
+      </c>
+      <c r="D218">
+        <v>104</v>
+      </c>
+      <c r="E218">
+        <v>80</v>
+      </c>
+      <c r="F218" t="s">
+        <v>8</v>
+      </c>
+      <c r="G218" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>49</v>
+      </c>
+      <c r="B219">
+        <v>35.227800000000002</v>
+      </c>
+      <c r="C219">
+        <v>-102.232</v>
+      </c>
+      <c r="D219">
+        <v>102</v>
+      </c>
+      <c r="E219">
+        <v>34</v>
+      </c>
+      <c r="F219" t="s">
+        <v>8</v>
+      </c>
+      <c r="G219" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>111</v>
+      </c>
+      <c r="B220">
+        <v>27.2286</v>
+      </c>
+      <c r="C220">
+        <v>-98.938100000000006</v>
+      </c>
+      <c r="D220">
+        <v>102</v>
+      </c>
+      <c r="E220">
+        <v>39</v>
+      </c>
+      <c r="F220" t="s">
+        <v>8</v>
+      </c>
+      <c r="G220" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>154</v>
+      </c>
+      <c r="B221">
+        <v>34.0807</v>
+      </c>
+      <c r="C221">
+        <v>-99.241</v>
+      </c>
+      <c r="D221">
+        <v>102</v>
+      </c>
+      <c r="E221">
+        <v>49</v>
+      </c>
+      <c r="F221" t="s">
+        <v>139</v>
+      </c>
+      <c r="G221" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>208</v>
+      </c>
+      <c r="B222">
+        <v>28.009499999999999</v>
+      </c>
+      <c r="C222">
+        <v>-97.518799999999999</v>
+      </c>
+      <c r="D222">
+        <v>101</v>
+      </c>
+      <c r="E222">
+        <v>49</v>
+      </c>
+      <c r="F222" t="s">
+        <v>139</v>
+      </c>
+      <c r="G222" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>143</v>
+      </c>
+      <c r="B223">
+        <v>31.9907</v>
+      </c>
+      <c r="C223">
+        <v>-97.132400000000004</v>
+      </c>
+      <c r="D223">
+        <v>100</v>
+      </c>
+      <c r="E223">
+        <v>49</v>
+      </c>
+      <c r="F223" t="s">
+        <v>139</v>
+      </c>
+      <c r="G223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>206</v>
+      </c>
+      <c r="B224">
+        <v>32.297699999999999</v>
+      </c>
+      <c r="C224">
+        <v>-99.373500000000007</v>
+      </c>
+      <c r="D224">
+        <v>100</v>
+      </c>
+      <c r="E224">
+        <v>49</v>
+      </c>
+      <c r="F224" t="s">
+        <v>139</v>
+      </c>
+      <c r="G224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>221</v>
+      </c>
+      <c r="B225">
+        <v>32.306199999999997</v>
+      </c>
+      <c r="C225">
+        <v>-100.9212</v>
+      </c>
+      <c r="D225">
+        <v>100</v>
+      </c>
+      <c r="E225">
+        <v>49</v>
+      </c>
+      <c r="F225" t="s">
+        <v>139</v>
+      </c>
+      <c r="G225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>207</v>
+      </c>
+      <c r="B226">
+        <v>28.009499999999999</v>
+      </c>
+      <c r="C226">
+        <v>-97.518799999999999</v>
+      </c>
+      <c r="D226">
+        <v>98.3</v>
+      </c>
+      <c r="E226">
+        <v>48</v>
+      </c>
+      <c r="F226" t="s">
+        <v>139</v>
+      </c>
+      <c r="G226" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>117</v>
+      </c>
+      <c r="B227">
+        <v>30.933299999999999</v>
+      </c>
+      <c r="C227">
+        <v>-102.154</v>
+      </c>
+      <c r="D227">
+        <v>98</v>
+      </c>
+      <c r="E227">
+        <v>107</v>
+      </c>
+      <c r="F227" t="s">
+        <v>8</v>
+      </c>
+      <c r="G227" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>135</v>
+      </c>
+      <c r="B228">
+        <v>33.519199999999998</v>
+      </c>
+      <c r="C228">
+        <v>-98.468900000000005</v>
+      </c>
+      <c r="D228">
+        <v>89</v>
+      </c>
+      <c r="E228">
+        <v>28</v>
+      </c>
+      <c r="F228" t="s">
+        <v>8</v>
+      </c>
+      <c r="G228" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>115</v>
+      </c>
+      <c r="B229">
+        <v>32.7286</v>
+      </c>
+      <c r="C229">
+        <v>-100.833</v>
+      </c>
+      <c r="D229">
+        <v>82</v>
+      </c>
+      <c r="E229">
+        <v>21</v>
+      </c>
+      <c r="F229" t="s">
+        <v>8</v>
+      </c>
+      <c r="G229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>36</v>
+      </c>
+      <c r="B230">
+        <v>33.027200000000001</v>
+      </c>
+      <c r="C230">
+        <v>-101.696</v>
+      </c>
+      <c r="D230">
+        <v>80</v>
+      </c>
+      <c r="E230">
+        <v>17</v>
+      </c>
+      <c r="F230" t="s">
+        <v>8</v>
+      </c>
+      <c r="G230" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>114</v>
+      </c>
+      <c r="B231">
+        <v>32.331899999999997</v>
+      </c>
+      <c r="C231">
+        <v>-98.466700000000003</v>
+      </c>
+      <c r="D231">
+        <v>78</v>
+      </c>
+      <c r="E231">
+        <v>24</v>
+      </c>
+      <c r="F231" t="s">
+        <v>8</v>
+      </c>
+      <c r="G231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>130</v>
+      </c>
+      <c r="B232">
+        <v>34.110300000000002</v>
+      </c>
+      <c r="C232">
+        <v>-101.098</v>
+      </c>
+      <c r="D232">
+        <v>78</v>
+      </c>
+      <c r="E232">
+        <v>26</v>
+      </c>
+      <c r="F232" t="s">
+        <v>8</v>
+      </c>
+      <c r="G232" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>86</v>
+      </c>
+      <c r="B233">
+        <v>32.209200000000003</v>
+      </c>
+      <c r="C233">
+        <v>-101.413</v>
+      </c>
+      <c r="D233">
+        <v>77</v>
+      </c>
+      <c r="E233">
+        <v>28</v>
+      </c>
+      <c r="F233" t="s">
+        <v>8</v>
+      </c>
+      <c r="G233" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>85</v>
+      </c>
+      <c r="B234">
+        <v>32.132199999999997</v>
+      </c>
+      <c r="C234">
+        <v>-101.42</v>
+      </c>
+      <c r="D234">
+        <v>76</v>
+      </c>
+      <c r="E234">
+        <v>28</v>
+      </c>
+      <c r="F234" t="s">
+        <v>8</v>
+      </c>
+      <c r="G234" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>37</v>
+      </c>
+      <c r="B235">
+        <v>33.950800000000001</v>
+      </c>
+      <c r="C235">
+        <v>-101.235</v>
+      </c>
+      <c r="D235">
+        <v>66</v>
+      </c>
+      <c r="E235">
+        <v>21</v>
+      </c>
+      <c r="F235" t="s">
+        <v>8</v>
+      </c>
+      <c r="G235" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>121</v>
+      </c>
+      <c r="B236">
+        <v>35.961100000000002</v>
+      </c>
+      <c r="C236">
+        <v>-101.804</v>
+      </c>
+      <c r="D236">
+        <v>65</v>
+      </c>
+      <c r="E236">
+        <v>33</v>
+      </c>
+      <c r="F236" t="s">
+        <v>8</v>
+      </c>
+      <c r="G236" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>134</v>
+      </c>
+      <c r="B237">
+        <v>31.3508</v>
+      </c>
+      <c r="C237">
+        <v>-104.443</v>
+      </c>
+      <c r="D237">
+        <v>52</v>
+      </c>
+      <c r="E237">
+        <v>109</v>
+      </c>
+      <c r="F237" t="s">
+        <v>8</v>
+      </c>
+      <c r="G237" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>201</v>
+      </c>
+      <c r="B238">
+        <v>26.396799999999999</v>
+      </c>
+      <c r="C238">
+        <v>-98.181100000000001</v>
+      </c>
+      <c r="D238">
+        <v>51</v>
+      </c>
+      <c r="E238">
+        <v>30</v>
+      </c>
+      <c r="F238" t="s">
+        <v>139</v>
+      </c>
+      <c r="G238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>203</v>
+      </c>
+      <c r="B239">
+        <v>30.722999999999999</v>
+      </c>
+      <c r="C239">
+        <v>-101.4121</v>
+      </c>
+      <c r="D239">
+        <v>50.6</v>
+      </c>
+      <c r="E239">
+        <v>29</v>
+      </c>
+      <c r="F239" t="s">
+        <v>139</v>
+      </c>
+      <c r="G239" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>129</v>
+      </c>
+      <c r="B240">
+        <v>31.758600000000001</v>
+      </c>
+      <c r="C240">
+        <v>-104.742</v>
+      </c>
+      <c r="D240">
+        <v>50</v>
+      </c>
+      <c r="E240">
+        <v>110</v>
+      </c>
+      <c r="F240" t="s">
+        <v>8</v>
+      </c>
+      <c r="G240" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>196</v>
+      </c>
+      <c r="B241">
+        <v>26.928100000000001</v>
+      </c>
+      <c r="C241">
+        <v>-97.717399999999998</v>
+      </c>
+      <c r="D241">
+        <v>47.9</v>
+      </c>
+      <c r="E241">
+        <v>28</v>
+      </c>
+      <c r="F241" t="s">
+        <v>139</v>
+      </c>
+      <c r="G241" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242">
+        <v>32.146700000000003</v>
+      </c>
+      <c r="C242">
+        <v>-101.398</v>
+      </c>
+      <c r="D242">
+        <v>45</v>
+      </c>
+      <c r="E242">
+        <v>46</v>
+      </c>
+      <c r="F242" t="s">
+        <v>8</v>
+      </c>
+      <c r="G242" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>204</v>
+      </c>
+      <c r="B243">
+        <v>32.301499999999997</v>
+      </c>
+      <c r="C243">
+        <v>-99.890100000000004</v>
+      </c>
+      <c r="D243">
+        <v>44</v>
+      </c>
+      <c r="E243">
+        <v>27</v>
+      </c>
+      <c r="F243" t="s">
+        <v>139</v>
+      </c>
+      <c r="G243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>83</v>
+      </c>
+      <c r="B244">
+        <v>32.991700000000002</v>
+      </c>
+      <c r="C244">
+        <v>-100.53</v>
+      </c>
+      <c r="D244">
+        <v>39</v>
+      </c>
+      <c r="E244">
+        <v>12</v>
+      </c>
+      <c r="F244" t="s">
+        <v>8</v>
+      </c>
+      <c r="G244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>38</v>
+      </c>
+      <c r="B245">
+        <v>31.6708</v>
+      </c>
+      <c r="C245">
+        <v>-104.739</v>
+      </c>
+      <c r="D245">
+        <v>37</v>
+      </c>
+      <c r="E245">
+        <v>38</v>
+      </c>
+      <c r="F245" t="s">
+        <v>8</v>
+      </c>
+      <c r="G245" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>104</v>
+      </c>
+      <c r="B246">
+        <v>29.756699999999999</v>
+      </c>
+      <c r="C246">
+        <v>-100.77500000000001</v>
+      </c>
+      <c r="D246">
+        <v>36</v>
+      </c>
+      <c r="E246">
+        <v>16</v>
+      </c>
+      <c r="F246" t="s">
+        <v>8</v>
+      </c>
+      <c r="G246" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>165</v>
+      </c>
+      <c r="B247">
+        <v>31.8279</v>
+      </c>
+      <c r="C247">
+        <v>-101.05</v>
+      </c>
+      <c r="D247">
+        <v>32</v>
+      </c>
+      <c r="E247">
+        <v>22</v>
+      </c>
+      <c r="F247" t="s">
+        <v>139</v>
+      </c>
+      <c r="G247" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>252</v>
+      </c>
+      <c r="B248">
+        <v>33.616500000000002</v>
+      </c>
+      <c r="C248">
+        <v>-99.213499999999996</v>
+      </c>
+      <c r="D248">
+        <v>30.24</v>
+      </c>
+      <c r="E248">
+        <v>21</v>
+      </c>
+      <c r="F248" t="s">
+        <v>139</v>
+      </c>
+      <c r="G248" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>47</v>
+      </c>
+      <c r="B249">
+        <v>36.497799999999998</v>
+      </c>
+      <c r="C249">
+        <v>-101.488</v>
+      </c>
+      <c r="D249">
+        <v>26</v>
+      </c>
+      <c r="E249">
+        <v>10</v>
+      </c>
+      <c r="F249" t="s">
+        <v>8</v>
+      </c>
+      <c r="G249" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>69</v>
+      </c>
+      <c r="B250">
+        <v>35.8033</v>
+      </c>
+      <c r="C250">
+        <v>-101.43300000000001</v>
+      </c>
+      <c r="D250">
+        <v>26</v>
+      </c>
+      <c r="E250">
+        <v>10</v>
+      </c>
+      <c r="F250" t="s">
+        <v>8</v>
+      </c>
+      <c r="G250" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>98</v>
+      </c>
+      <c r="B251">
+        <v>33.744750000000003</v>
+      </c>
+      <c r="C251">
+        <v>-101.455</v>
+      </c>
+      <c r="D251">
+        <v>26</v>
+      </c>
+      <c r="E251">
+        <v>11</v>
+      </c>
+      <c r="F251" t="s">
+        <v>8</v>
+      </c>
+      <c r="G251" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>76</v>
+      </c>
+      <c r="B252">
+        <v>33.569400000000002</v>
+      </c>
+      <c r="C252">
+        <v>-101.762</v>
+      </c>
+      <c r="D252">
+        <v>16</v>
+      </c>
+      <c r="E252">
+        <v>5</v>
+      </c>
+      <c r="F252" t="s">
+        <v>8</v>
+      </c>
+      <c r="G252" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>90</v>
+      </c>
+      <c r="B253">
+        <v>35.3078</v>
+      </c>
+      <c r="C253">
+        <v>-101.535</v>
+      </c>
+      <c r="D253">
+        <v>15</v>
+      </c>
+      <c r="E253">
+        <v>5</v>
+      </c>
+      <c r="F253" t="s">
+        <v>8</v>
+      </c>
+      <c r="G253" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>42</v>
+      </c>
+      <c r="B254">
+        <v>35.808100000000003</v>
+      </c>
+      <c r="C254">
+        <v>-101.99</v>
+      </c>
+      <c r="D254">
+        <v>13</v>
+      </c>
+      <c r="E254">
+        <v>8</v>
+      </c>
+      <c r="F254" t="s">
+        <v>8</v>
+      </c>
+      <c r="G254" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>99</v>
+      </c>
+      <c r="B255">
+        <v>33.552500000000002</v>
+      </c>
+      <c r="C255">
+        <v>-101.8</v>
+      </c>
+      <c r="D255">
+        <v>13</v>
+      </c>
+      <c r="E255">
+        <v>10</v>
+      </c>
+      <c r="F255" t="s">
+        <v>8</v>
+      </c>
+      <c r="G255" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>101</v>
+      </c>
+      <c r="B256">
+        <v>33.6614</v>
+      </c>
+      <c r="C256">
+        <v>-101.38500000000001</v>
+      </c>
+      <c r="D256">
+        <v>13</v>
+      </c>
+      <c r="E256">
+        <v>5</v>
+      </c>
+      <c r="F256" t="s">
+        <v>8</v>
+      </c>
+      <c r="G256" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>128</v>
+      </c>
+      <c r="B257">
+        <v>35.346400000000003</v>
+      </c>
+      <c r="C257">
+        <v>-101.381</v>
+      </c>
+      <c r="D257">
+        <v>13</v>
+      </c>
+      <c r="E257">
+        <v>8</v>
+      </c>
+      <c r="F257" t="s">
+        <v>8</v>
+      </c>
+      <c r="G257" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>157</v>
+      </c>
+      <c r="B258">
+        <v>33.615299999999998</v>
+      </c>
+      <c r="C258">
+        <v>-98.687700000000007</v>
+      </c>
+      <c r="D258">
+        <v>12</v>
+      </c>
+      <c r="E258">
+        <v>14</v>
+      </c>
+      <c r="F258" t="s">
+        <v>139</v>
+      </c>
+      <c r="G258" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>155</v>
+      </c>
+      <c r="B259">
+        <v>34.0807</v>
+      </c>
+      <c r="C259">
+        <v>-99.241</v>
+      </c>
+      <c r="D259">
+        <v>9.9</v>
+      </c>
+      <c r="E259">
+        <v>14</v>
+      </c>
+      <c r="F259" t="s">
+        <v>139</v>
+      </c>
+      <c r="G259" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>166</v>
+      </c>
+      <c r="B260">
+        <v>31.8279</v>
+      </c>
+      <c r="C260">
+        <v>-101.05</v>
+      </c>
+      <c r="D260">
+        <v>9</v>
+      </c>
+      <c r="E260">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s">
+        <v>139</v>
+      </c>
+      <c r="G260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>254</v>
+      </c>
+      <c r="B261">
+        <v>31.869499999999999</v>
+      </c>
+      <c r="C261">
+        <v>-101.52079999999999</v>
+      </c>
+      <c r="D261">
+        <v>7.4</v>
+      </c>
+      <c r="E261">
+        <v>13</v>
+      </c>
+      <c r="F261" t="s">
+        <v>139</v>
+      </c>
+      <c r="G261" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>32.3035</v>
+      </c>
+      <c r="C262">
+        <v>-100.4061</v>
+      </c>
+      <c r="D262">
+        <v>7.3</v>
+      </c>
+      <c r="E262">
+        <v>12</v>
+      </c>
+      <c r="F262" t="s">
+        <v>139</v>
+      </c>
+      <c r="G262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>177</v>
+      </c>
+      <c r="B263">
+        <v>30.781099999999999</v>
+      </c>
+      <c r="C263">
+        <v>-102.7236</v>
+      </c>
+      <c r="D263">
+        <v>7.2</v>
+      </c>
+      <c r="E263">
+        <v>12</v>
+      </c>
+      <c r="F263" t="s">
+        <v>139</v>
+      </c>
+      <c r="G263" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>270</v>
+      </c>
+      <c r="B264">
+        <v>32.3035</v>
+      </c>
+      <c r="C264">
+        <v>-100.4061</v>
+      </c>
+      <c r="D264">
+        <v>6.4</v>
+      </c>
+      <c r="E264">
+        <v>12</v>
+      </c>
+      <c r="F264" t="s">
+        <v>139</v>
+      </c>
+      <c r="G264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>260</v>
+      </c>
+      <c r="B265">
+        <v>32.3035</v>
+      </c>
+      <c r="C265">
+        <v>-100.4061</v>
+      </c>
+      <c r="D265">
+        <v>3</v>
+      </c>
+      <c r="E265">
+        <v>11</v>
+      </c>
+      <c r="F265" t="s">
+        <v>139</v>
+      </c>
+      <c r="G265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G265">
+    <sortCondition descending="1" ref="D2:D265"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>